--- a/eda/correlacao/faixas_correlacao.xlsx
+++ b/eda/correlacao/faixas_correlacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Master-Dissertation\eda\correlacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0862F152-4F84-4399-B1D6-BCC51E0CFAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B183D4C1-3F2F-4E61-82A6-5AA311863F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,13 +48,13 @@
     <t>Correlação positiva completa</t>
   </si>
   <si>
-    <t>Valor de coeficiente de correlação</t>
-  </si>
-  <si>
     <t>0.7 - 0.99</t>
   </si>
   <si>
     <t>0.5 - 0.69</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -377,9 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -389,7 +387,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -405,7 +403,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -413,7 +411,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
